--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/66.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/66.xlsx
@@ -479,13 +479,13 @@
         <v>0.004070906941015155</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.932105503532921</v>
+        <v>-1.934590505383647</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3948592817856361</v>
+        <v>0.395228673952636</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2321247897490137</v>
+        <v>-0.2322036323459228</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.02980912675795776</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.945342299525099</v>
+        <v>-1.947466669497371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3132425935038399</v>
+        <v>0.3137287895181124</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2123265376362918</v>
+        <v>-0.2120067871043828</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05057464016193254</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.014453675908262</v>
+        <v>-2.017682572261307</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2866521976722106</v>
+        <v>0.2864842921417561</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2298222939096507</v>
+        <v>-0.2293244175106508</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06399338311536712</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.079068104171427</v>
+        <v>-2.080584364113836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2617642179145809</v>
+        <v>0.2621584308991263</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2362494256058308</v>
+        <v>-0.2356741666580127</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07471857921291308</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.044894218555618</v>
+        <v>-2.046836812540572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2484777802873118</v>
+        <v>0.2478806206181301</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2238828182758341</v>
+        <v>-0.2233133995203797</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.08945258135196396</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.911099061624972</v>
+        <v>-1.911632709202199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2641280357737621</v>
+        <v>0.2654654398250345</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2111745596925648</v>
+        <v>-0.2107380053133831</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1175753611793001</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.638926386830363</v>
+        <v>-1.639941120253545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2625336632584898</v>
+        <v>0.264658033230762</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.185648538919208</v>
+        <v>-0.1869888630666622</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1647857463300336</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.261703981918919</v>
+        <v>-1.263366976694464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2461344031014033</v>
+        <v>0.2482762936507664</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1277123706238599</v>
+        <v>-0.1297432975183139</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2353616863714772</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7744202318185953</v>
+        <v>-0.7772439648264128</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2713143924772147</v>
+        <v>0.2735103048059414</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0272026600457051</v>
+        <v>-0.02881017299379558</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3320816729965585</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.239604616118739</v>
+        <v>-0.2433788404337379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1654244046840614</v>
+        <v>0.1655397484832432</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06135509686027112</v>
+        <v>0.05956799799699888</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.457112521417006</v>
       </c>
       <c r="E12" t="n">
-        <v>0.427019761084082</v>
+        <v>0.4261510324699914</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04273948370118521</v>
+        <v>0.04270736264318522</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1612311465669716</v>
+        <v>0.1586074401476086</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6113843054499125</v>
       </c>
       <c r="E13" t="n">
-        <v>1.113109499434898</v>
+        <v>1.110358768831626</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1225262798049522</v>
+        <v>-0.1215246868145889</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2929961066272089</v>
+        <v>0.2912776300242094</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7941084865031527</v>
       </c>
       <c r="E14" t="n">
-        <v>1.829854407502433</v>
+        <v>1.827548991566888</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3444302288536199</v>
+        <v>-0.3464538555076194</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4407792542928056</v>
+        <v>0.4381482476329882</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.002949607549873</v>
       </c>
       <c r="E15" t="n">
-        <v>2.533842875399698</v>
+        <v>2.532617895051426</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6158546290016379</v>
+        <v>-0.6174767424306375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6292043006169368</v>
+        <v>0.6266988580929375</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.231137443365834</v>
       </c>
       <c r="E16" t="n">
-        <v>3.203647237344518</v>
+        <v>3.204602108795973</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9353525725909158</v>
+        <v>-0.9358081075952793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7849812115802587</v>
+        <v>0.7829634251186228</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.470416452892281</v>
       </c>
       <c r="E17" t="n">
-        <v>3.859530040742524</v>
+        <v>3.862082204805432</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.194385544591392</v>
+        <v>-1.19557110364121</v>
       </c>
       <c r="G17" t="n">
-        <v>0.983766759157478</v>
+        <v>0.9814219219234787</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.70947334212099</v>
       </c>
       <c r="E18" t="n">
-        <v>4.398997369660015</v>
+        <v>4.401882424687651</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.55495318092984</v>
+        <v>-1.554815936409295</v>
       </c>
       <c r="G18" t="n">
-        <v>1.18345607650297</v>
+        <v>1.181233883308607</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.937230042327482</v>
       </c>
       <c r="E19" t="n">
-        <v>4.926486464039692</v>
+        <v>4.930038761044873</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.837368823106219</v>
+        <v>-1.838958815477219</v>
       </c>
       <c r="G19" t="n">
-        <v>1.379693840161553</v>
+        <v>1.379394530302917</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.142488566214912</v>
       </c>
       <c r="E20" t="n">
-        <v>5.28769652153814</v>
+        <v>5.292324873986321</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.158538521759587</v>
+        <v>-2.159638667996087</v>
       </c>
       <c r="G20" t="n">
-        <v>1.589536331931224</v>
+        <v>1.588883690434588</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.316022558685187</v>
       </c>
       <c r="E21" t="n">
-        <v>5.598707205574966</v>
+        <v>5.602668316045602</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.473461404656003</v>
+        <v>-2.47648589427632</v>
       </c>
       <c r="G21" t="n">
-        <v>1.770169101594176</v>
+        <v>1.769990975727085</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.452326261002491</v>
       </c>
       <c r="E22" t="n">
-        <v>5.834569214372721</v>
+        <v>5.840257561734902</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.78319016646901</v>
+        <v>-2.786384751691919</v>
       </c>
       <c r="G22" t="n">
-        <v>1.897694081998414</v>
+        <v>1.897407912572596</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.549035488864262</v>
       </c>
       <c r="E23" t="n">
-        <v>5.985000889275226</v>
+        <v>5.993019473390497</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.034431591832352</v>
+        <v>-3.036812200244579</v>
       </c>
       <c r="G23" t="n">
-        <v>2.015626546445383</v>
+        <v>2.016471914290019</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.606718221859056</v>
       </c>
       <c r="E24" t="n">
-        <v>6.074993873454566</v>
+        <v>6.082847472135564</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.269028468959335</v>
+        <v>-3.271390826770425</v>
       </c>
       <c r="G24" t="n">
-        <v>2.118857786664992</v>
+        <v>2.119468086766991</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.627034588223457</v>
       </c>
       <c r="E25" t="n">
-        <v>6.08923664258138</v>
+        <v>6.097834865788741</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.444198468690151</v>
+        <v>-3.446970369990741</v>
       </c>
       <c r="G25" t="n">
-        <v>2.176415802504794</v>
+        <v>2.17494699412534</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.613754625398998</v>
       </c>
       <c r="E26" t="n">
-        <v>6.036222296400485</v>
+        <v>6.044715396145301</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.609550375033652</v>
+        <v>-3.613069820956788</v>
       </c>
       <c r="G26" t="n">
-        <v>2.203325948868332</v>
+        <v>2.201981244576606</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.570263593010494</v>
       </c>
       <c r="E27" t="n">
-        <v>5.935785588226875</v>
+        <v>5.942783598726601</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.69803877965531</v>
+        <v>-3.702540837943627</v>
       </c>
       <c r="G27" t="n">
-        <v>2.205581723168786</v>
+        <v>2.204740735468423</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.500206388655134</v>
       </c>
       <c r="E28" t="n">
-        <v>5.86443741816844</v>
+        <v>5.870525818707529</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.765035276378792</v>
+        <v>-3.769267225770291</v>
       </c>
       <c r="G28" t="n">
-        <v>2.213772592958784</v>
+        <v>2.212176760395421</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.406674113303158</v>
       </c>
       <c r="E29" t="n">
-        <v>5.66918518697122</v>
+        <v>5.674274914616127</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.803998119732782</v>
+        <v>-3.809116318315462</v>
       </c>
       <c r="G29" t="n">
-        <v>2.210420322542058</v>
+        <v>2.211064203750148</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.292564072042475</v>
       </c>
       <c r="E30" t="n">
-        <v>5.458538208703458</v>
+        <v>5.46320014225773</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.830365858230548</v>
+        <v>-3.837760271786955</v>
       </c>
       <c r="G30" t="n">
-        <v>2.164357265321979</v>
+        <v>2.165239134368888</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.161688817487105</v>
       </c>
       <c r="E31" t="n">
-        <v>5.180438468683805</v>
+        <v>5.184621506464259</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.726307500767439</v>
+        <v>-3.733677093506301</v>
       </c>
       <c r="G31" t="n">
-        <v>2.082169698236638</v>
+        <v>2.083334816613183</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.018627397322005</v>
       </c>
       <c r="E32" t="n">
-        <v>4.873326113049706</v>
+        <v>4.878172012663432</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.644890109050052</v>
+        <v>-3.652650994677277</v>
       </c>
       <c r="G32" t="n">
-        <v>1.935069853077586</v>
+        <v>1.937097859875858</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.867627896797137</v>
       </c>
       <c r="E33" t="n">
-        <v>4.592839194401418</v>
+        <v>4.597536169109871</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.508687332817498</v>
+        <v>-3.515270689659405</v>
       </c>
       <c r="G33" t="n">
-        <v>1.843056162340429</v>
+        <v>1.844882682502156</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.711858252451834</v>
       </c>
       <c r="E34" t="n">
-        <v>4.261186350455326</v>
+        <v>4.264775148662779</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.3969987640313</v>
+        <v>-3.401524913113117</v>
       </c>
       <c r="G34" t="n">
-        <v>1.718788549227008</v>
+        <v>1.719093699278008</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.55509825453923</v>
       </c>
       <c r="E35" t="n">
-        <v>3.917089516630417</v>
+        <v>3.921482801335962</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.279169232974741</v>
+        <v>-3.283699032176785</v>
       </c>
       <c r="G35" t="n">
-        <v>1.60464928972022</v>
+        <v>1.60635170579422</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.400348961999502</v>
       </c>
       <c r="E36" t="n">
-        <v>3.581358758366417</v>
+        <v>3.586582810435688</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.154577489185138</v>
+        <v>-3.159667946854091</v>
       </c>
       <c r="G36" t="n">
-        <v>1.458845967265896</v>
+        <v>1.459289821885532</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.252655427132197</v>
       </c>
       <c r="E37" t="n">
-        <v>3.23290952118251</v>
+        <v>3.235604769958328</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.016778880389221</v>
+        <v>-3.018998883511447</v>
       </c>
       <c r="G37" t="n">
-        <v>1.328332268419567</v>
+        <v>1.328730861548385</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.113715921199059</v>
       </c>
       <c r="E38" t="n">
-        <v>2.873565405144243</v>
+        <v>2.877615578548424</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.962203012775099</v>
+        <v>-2.963090722014371</v>
       </c>
       <c r="G38" t="n">
-        <v>1.182228176058516</v>
+        <v>1.182618008898788</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9839493497926414</v>
       </c>
       <c r="E39" t="n">
-        <v>2.531055643594153</v>
+        <v>2.534031221603426</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.822646506077727</v>
+        <v>-2.823819654718772</v>
       </c>
       <c r="G39" t="n">
-        <v>1.081169487398179</v>
+        <v>1.082089317695452</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8624213320049683</v>
       </c>
       <c r="E40" t="n">
-        <v>2.214639861524784</v>
+        <v>2.217183265299147</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.70591201108935</v>
+        <v>-2.706553702225304</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9611462340850295</v>
+        <v>0.9617988755816657</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7491640481014739</v>
       </c>
       <c r="E41" t="n">
-        <v>1.881499228574055</v>
+        <v>1.883876186866055</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.576893401488111</v>
+        <v>-2.57751830207102</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8387825236821532</v>
+        <v>0.8395183879199712</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6446368589518002</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549539774528871</v>
+        <v>1.551231970266235</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.512088436949083</v>
+        <v>-2.513749971676537</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7217874101095483</v>
+        <v>0.7229087270433662</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5482252993015065</v>
       </c>
       <c r="E43" t="n">
-        <v>1.284630108962488</v>
+        <v>1.286828941387397</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.432004069138696</v>
+        <v>-2.433524709225377</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6586315698892017</v>
+        <v>0.659168867586656</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.459245330237631</v>
       </c>
       <c r="E44" t="n">
-        <v>1.015610408020197</v>
+        <v>1.01870132982865</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.318537891801817</v>
+        <v>-2.319045258513408</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5505150087574125</v>
+        <v>0.5511734904464123</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3765796996068463</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7943036186407106</v>
+        <v>0.7992896828711639</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.273999854812693</v>
+        <v>-2.274343696138102</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4438132342257139</v>
+        <v>0.4442045271140774</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.301024737236127</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5597060114896828</v>
+        <v>0.5647796786055905</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.182830071872081</v>
+        <v>-2.183616307769035</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3762757896845502</v>
+        <v>0.3781081500386406</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2324981159273006</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3608781225178271</v>
+        <v>0.3658890075658257</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.09267502235465</v>
+        <v>-2.094705219225059</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2950124330407538</v>
+        <v>0.2965089823339352</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1710669762394689</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2407950072329502</v>
+        <v>0.2465125555569487</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.988386707317224</v>
+        <v>-1.989908077427951</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2050311292461416</v>
+        <v>0.2073569858549592</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1161028136950724</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1132393658188026</v>
+        <v>0.1186619844284375</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.888878589729432</v>
+        <v>-1.891511786461386</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1530096157670647</v>
+        <v>0.1547061916487006</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06679049932248052</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008178685341285401</v>
+        <v>0.0134655194784658</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.804001614060637</v>
+        <v>-1.807161888153409</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08645624363917347</v>
+        <v>0.08851783154353655</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.02220890218479325</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08159383157632685</v>
+        <v>-0.07705308201360081</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.67373977350999</v>
+        <v>-1.677309591092262</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02778567115409832</v>
+        <v>0.03077438959618842</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.01890345823162388</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1854163912727535</v>
+        <v>-0.1832102586073905</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.552926634179659</v>
+        <v>-1.556982647776203</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008814814388800945</v>
+        <v>-0.007490550770346756</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05755355967130561</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3058455379551757</v>
+        <v>-0.3046147174145397</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.440078057185235</v>
+        <v>-1.443383606063052</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07614785219723741</v>
+        <v>-0.07539300733423761</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0949431811928997</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3397682952993484</v>
+        <v>-0.3386776393754397</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.368658344770345</v>
+        <v>-1.371727365857435</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1404950916597656</v>
+        <v>-0.1399344331928566</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1311023897211834</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4684905151381321</v>
+        <v>-0.4677634111888595</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.32380566741763</v>
+        <v>-1.328052947314083</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1496773341034904</v>
+        <v>-0.1508862539227628</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1658399596011222</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5476382620982018</v>
+        <v>-0.5490267678326559</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.238092084192744</v>
+        <v>-1.239505410744743</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1996942015537497</v>
+        <v>-0.1999424097292042</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1986572496775092</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6478384424810839</v>
+        <v>-0.6506461149599013</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.1968574060093</v>
+        <v>-1.1986240641993</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2295492649166508</v>
+        <v>-0.2310122331037413</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2287969595969059</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6698077861049871</v>
+        <v>-0.6733965843124406</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156177546100402</v>
+        <v>-1.157069635483947</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2639129567842779</v>
+        <v>-0.2656927554070956</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2555429903963481</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7650131419688706</v>
+        <v>-0.7672382552594155</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.142374251448951</v>
+        <v>-1.143607992085769</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3165681311348092</v>
+        <v>-0.3184997747590814</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2787498909173189</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8317534002523982</v>
+        <v>-0.8334791770958523</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102279870824507</v>
+        <v>-1.101901718368962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.350139016889073</v>
+        <v>-0.3524225321032541</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2992263108635425</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9630423846349992</v>
+        <v>-0.9658471370176349</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.092729696261874</v>
+        <v>-1.093855393339964</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3938528567308794</v>
+        <v>-0.3958589628077879</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3175300210294084</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.083922686177512</v>
+        <v>-1.087769912897057</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.092421626114692</v>
+        <v>-1.09363930622251</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4351240361165956</v>
+        <v>-0.4380193114808675</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3344063134145235</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.144320495554132</v>
+        <v>-1.147379296304586</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13151149365259</v>
+        <v>-1.132889779050408</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4949188456316704</v>
+        <v>-0.4981148909026696</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3502953227120684</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.238965192951107</v>
+        <v>-1.242497049283015</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.16001455248331</v>
+        <v>-1.161808951587037</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5235489286462991</v>
+        <v>-0.5261171532382075</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3653062446934044</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.370118392861254</v>
+        <v>-1.375647594981525</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.120603474365411</v>
+        <v>-1.122878229291047</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5485055306642015</v>
+        <v>-0.5509306705432009</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3792918220583519</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.429393425255965</v>
+        <v>-1.434738661316782</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.198948194875481</v>
+        <v>-1.202103358799935</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6035143025372777</v>
+        <v>-0.6060153649170043</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3919563875853487</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.528721956928575</v>
+        <v>-1.533601437648392</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.290436268299911</v>
+        <v>-1.293892202131092</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6491685462919017</v>
+        <v>-0.6505833328919922</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4030718158916784</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.554069851834841</v>
+        <v>-1.55668771806184</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.360883588686256</v>
+        <v>-1.364688474011164</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6728373858936226</v>
+        <v>-0.6742784533593495</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4125264000231759</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.620830550791641</v>
+        <v>-1.622283298642095</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.442938291395325</v>
+        <v>-1.447024966001778</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6676279343052604</v>
+        <v>-0.6680104669050785</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4203595788429297</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.676502184497989</v>
+        <v>-1.677311051140353</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.518015424277941</v>
+        <v>-1.521391055464122</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6926735992567082</v>
+        <v>-0.6936445312371625</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4264773100046498</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709655496498253</v>
+        <v>-1.711903970558253</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.629579158952366</v>
+        <v>-1.633334402642183</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7341813064331516</v>
+        <v>-0.7361217103459693</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4313955960214677</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.69001638962744</v>
+        <v>-1.691559660459531</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.724456003995795</v>
+        <v>-1.728684303267066</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7567317491972365</v>
+        <v>-0.7580866738255998</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4354399212756678</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.680147924580988</v>
+        <v>-1.682218272773897</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.776480437571054</v>
+        <v>-1.780152458519689</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7781813157007762</v>
+        <v>-0.7784032430105943</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4385164428517245</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.630510669634365</v>
+        <v>-1.63257371758682</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.848925833769807</v>
+        <v>-1.85173423627267</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7759708028911404</v>
+        <v>-0.7771884829989583</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4401236538207111</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542642055427298</v>
+        <v>-1.544240808086843</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.952205255576416</v>
+        <v>-1.953825178933279</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7787317538310488</v>
+        <v>-0.779493898934503</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4392867170339189</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.425743305028693</v>
+        <v>-1.427025227252511</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.005525481832356</v>
+        <v>-2.006122641501537</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7659402725065977</v>
+        <v>-0.7659431926027794</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.434673477662317</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290355965654911</v>
+        <v>-1.290297563731275</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.056863692804888</v>
+        <v>-2.058069692527978</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7530801689218738</v>
+        <v>-0.7528261205540557</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4255464184382484</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.107832433714233</v>
+        <v>-1.105673022587779</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.083569432435699</v>
+        <v>-2.083131418008426</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7262693058285173</v>
+        <v>-0.7258546521706993</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4112893989713439</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9474607514088216</v>
+        <v>-0.9430645466070955</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.080335425914336</v>
+        <v>-2.080368276996381</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6711568705409867</v>
+        <v>-0.6706327132763505</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3914840212110507</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7053336762529776</v>
+        <v>-0.701569672274615</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.115786123585644</v>
+        <v>-2.114637065738099</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6121680075720934</v>
+        <v>-0.6130119153686387</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3659312318282316</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4472497355115923</v>
+        <v>-0.4438215425941387</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.118076209016234</v>
+        <v>-2.11634094186019</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5179832253237552</v>
+        <v>-0.5185234431173914</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3344292034040832</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1566461436413976</v>
+        <v>-0.1556839719494888</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.104215242465193</v>
+        <v>-2.103131886781739</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4491156769717736</v>
+        <v>-0.4500968292888643</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2973751253103014</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1446318598214306</v>
+        <v>0.1439456372187035</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.038597031139529</v>
+        <v>-2.040341788608165</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3344361996713499</v>
+        <v>-0.3360028312728949</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2553469016266506</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4898456304358834</v>
+        <v>0.487245284785975</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.980753575897953</v>
+        <v>-1.982609297021498</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2537145208692806</v>
+        <v>-0.2549935229969166</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2091814332235462</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7947182722985288</v>
+        <v>0.7906301376439844</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.908644720784154</v>
+        <v>-1.91079902174229</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1795834991495733</v>
+        <v>-0.1812245932037546</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1601970279492296</v>
       </c>
       <c r="E86" t="n">
-        <v>1.11115303499308</v>
+        <v>1.107371510437627</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.858812549417395</v>
+        <v>-1.862247312551258</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.105867131087684</v>
+        <v>-0.1060919784936839</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1104369293589265</v>
       </c>
       <c r="E87" t="n">
-        <v>1.355928637385833</v>
+        <v>1.353750245634197</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.683503115093897</v>
+        <v>-1.689753580971077</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05882730169478752</v>
+        <v>-0.05912223140915107</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06202579629098837</v>
       </c>
       <c r="E88" t="n">
-        <v>1.580215384918863</v>
+        <v>1.577485094988864</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.501645365082673</v>
+        <v>-1.509122271356216</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0106125855088302</v>
+        <v>0.01058922473937566</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01669579129035071</v>
       </c>
       <c r="E89" t="n">
-        <v>1.76734828868254</v>
+        <v>1.762771037917542</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.26824499736619</v>
+        <v>-1.278869767323733</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06631634027317888</v>
+        <v>0.06575714185436085</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02422763476253891</v>
       </c>
       <c r="E90" t="n">
-        <v>1.949718515573673</v>
+        <v>1.94449154340822</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.03872105733107</v>
+        <v>-1.050567887540703</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09875422870889744</v>
+        <v>0.09853814159144296</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05951304662795973</v>
       </c>
       <c r="E91" t="n">
-        <v>2.134506582103351</v>
+        <v>2.128194794206352</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8139116125814938</v>
+        <v>-0.8265089075098541</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08167604618953839</v>
+        <v>0.08122635137753852</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08719397499577394</v>
       </c>
       <c r="E92" t="n">
-        <v>2.252230259673319</v>
+        <v>2.247048548998684</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6137623800873658</v>
+        <v>-0.6268341906452713</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09297535836508081</v>
+        <v>0.09380174558453513</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1055245550543796</v>
       </c>
       <c r="E93" t="n">
-        <v>2.356909867599109</v>
+        <v>2.351347084372747</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3644197472662509</v>
+        <v>-0.3778127684041564</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04383305972127582</v>
+        <v>0.0450872410313664</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1137864378279935</v>
       </c>
       <c r="E94" t="n">
-        <v>2.376668698413376</v>
+        <v>2.372157149812469</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2225965159077435</v>
+        <v>-0.2359822368051945</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008751024192921611</v>
+        <v>0.00969275521155772</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1115532545629416</v>
       </c>
       <c r="E95" t="n">
-        <v>2.33118674033348</v>
+        <v>2.328065157515117</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05840096765224218</v>
+        <v>-0.06998060906123907</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02796042500488671</v>
+        <v>-0.02741290697079595</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09929426489932365</v>
       </c>
       <c r="E96" t="n">
-        <v>2.23216335871187</v>
+        <v>2.229682737005416</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06119741166645298</v>
+        <v>0.04951118674681976</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07008865261996632</v>
+        <v>-0.06842711789251221</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07892662432389144</v>
       </c>
       <c r="E97" t="n">
-        <v>2.084172884217364</v>
+        <v>2.080556345096183</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1324959400897975</v>
+        <v>0.1232202545682545</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1258741700774059</v>
+        <v>-0.1238709840966791</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.05170956340694503</v>
       </c>
       <c r="E98" t="n">
-        <v>1.890198195099689</v>
+        <v>1.886972948866872</v>
       </c>
       <c r="F98" t="n">
-        <v>0.198212704661598</v>
+        <v>0.1906598758873273</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1398891717020385</v>
+        <v>-0.1396380434304022</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02031355159076225</v>
       </c>
       <c r="E99" t="n">
-        <v>1.692707710179106</v>
+        <v>1.68921235504947</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2084578621155043</v>
+        <v>0.2021665148917788</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1340869405887673</v>
+        <v>-0.1344928339580399</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.01482796250973439</v>
       </c>
       <c r="E100" t="n">
-        <v>1.534190288949148</v>
+        <v>1.528939956014241</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2314521594992255</v>
+        <v>0.2266033397893177</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1300484475693139</v>
+        <v>-0.1294031063131322</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05003767341808623</v>
       </c>
       <c r="E101" t="n">
-        <v>1.392007885760277</v>
+        <v>1.38539240786037</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2225531663851369</v>
+        <v>0.2193600412103196</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1103334181977737</v>
+        <v>-0.1103801397366828</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08669892303052652</v>
       </c>
       <c r="E102" t="n">
-        <v>1.210548728877872</v>
+        <v>1.201363566337965</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2372748312857693</v>
+        <v>0.2344554784222246</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1419376191735834</v>
+        <v>-0.1424661565824923</v>
       </c>
     </row>
   </sheetData>
